--- a/server/images/liste_documents.xlsx
+++ b/server/images/liste_documents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alexis\Bureau\3IF\Stage\react-flask\server\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54F1FF4-771A-428F-9F60-E1C563167CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202D4AB0-4B7B-4DBC-92F2-C3CE5FDEE577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>1776-1790</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Intitulé</t>
@@ -383,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -397,34 +394,29 @@
     <col min="4" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F11" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/server/images/liste_documents.xlsx
+++ b/server/images/liste_documents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alexis\Bureau\3IF\Stage\react-flask\server\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202D4AB0-4B7B-4DBC-92F2-C3CE5FDEE577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A81C939-B54E-4B0A-9F9D-53587ED086C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5100" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>1776-1790</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>ECH</t>
+  </si>
+  <si>
+    <t>EXEMPLE</t>
+  </si>
+  <si>
+    <t>Exemple d'ajout</t>
   </si>
 </sst>
 </file>
@@ -380,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -419,6 +425,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2022</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
